--- a/natmiOut/OldD4/LR-pairs_lrc2p/Wnt5a-Fzd2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Wnt5a-Fzd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Wnt5a</t>
   </si>
   <si>
     <t>Fzd2</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>4.93929013296319</v>
+        <v>0.06488733333333334</v>
       </c>
       <c r="H2">
-        <v>4.93929013296319</v>
+        <v>0.194662</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.01118619931635934</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.01123574233808859</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.09406177140980609</v>
+        <v>0.139245</v>
       </c>
       <c r="N2">
-        <v>0.09406177140980609</v>
+        <v>0.417735</v>
       </c>
       <c r="O2">
-        <v>0.008856199151427826</v>
+        <v>0.01212793695325064</v>
       </c>
       <c r="P2">
-        <v>0.008856199151427826</v>
+        <v>0.01283499108585158</v>
       </c>
       <c r="Q2">
-        <v>0.4645983794134944</v>
+        <v>0.00903523673</v>
       </c>
       <c r="R2">
-        <v>0.4645983794134944</v>
+        <v>0.08131713056999999</v>
       </c>
       <c r="S2">
-        <v>0.008856199151427826</v>
+        <v>0.0001356655200553016</v>
       </c>
       <c r="T2">
-        <v>0.008856199151427826</v>
+        <v>0.0001442106527522922</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>4.93929013296319</v>
+        <v>0.06488733333333334</v>
       </c>
       <c r="H3">
-        <v>4.93929013296319</v>
+        <v>0.194662</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.01118619931635934</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.01123574233808859</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.733624671439991</v>
+        <v>9.380691666666667</v>
       </c>
       <c r="N3">
-        <v>8.733624671439991</v>
+        <v>28.142075</v>
       </c>
       <c r="O3">
-        <v>0.8222970739846438</v>
+        <v>0.8170378621222814</v>
       </c>
       <c r="P3">
-        <v>0.8222970739846438</v>
+        <v>0.8646708601442703</v>
       </c>
       <c r="Q3">
-        <v>43.13790616464743</v>
+        <v>0.6086880670722223</v>
       </c>
       <c r="R3">
-        <v>43.13790616464743</v>
+        <v>5.47819260365</v>
       </c>
       <c r="S3">
-        <v>0.8222970739846438</v>
+        <v>0.009139548374711962</v>
       </c>
       <c r="T3">
-        <v>0.8222970739846438</v>
+        <v>0.009715218991834454</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +649,805 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.06488733333333334</v>
+      </c>
+      <c r="H4">
+        <v>0.194662</v>
+      </c>
+      <c r="I4">
+        <v>0.01118619931635934</v>
+      </c>
+      <c r="J4">
+        <v>0.01123574233808859</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.006356333333333333</v>
+      </c>
+      <c r="N4">
+        <v>0.019069</v>
+      </c>
+      <c r="O4">
+        <v>0.0005536228225107701</v>
+      </c>
+      <c r="P4">
+        <v>0.0005858988234553099</v>
+      </c>
+      <c r="Q4">
+        <v>0.0004124455197777778</v>
+      </c>
+      <c r="R4">
+        <v>0.003712009678</v>
+      </c>
+      <c r="S4">
+        <v>6.192935238690907E-06</v>
+      </c>
+      <c r="T4">
+        <v>6.583008216533116E-06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.06488733333333334</v>
+      </c>
+      <c r="H5">
+        <v>0.194662</v>
+      </c>
+      <c r="I5">
+        <v>0.01118619931635934</v>
+      </c>
+      <c r="J5">
+        <v>0.01123574233808859</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.05759666666666666</v>
+      </c>
+      <c r="N5">
+        <v>0.17279</v>
+      </c>
+      <c r="O5">
+        <v>0.005016544522609259</v>
+      </c>
+      <c r="P5">
+        <v>0.005309007168957103</v>
+      </c>
+      <c r="Q5">
+        <v>0.003737294108888889</v>
+      </c>
+      <c r="R5">
+        <v>0.03363564698</v>
+      </c>
+      <c r="S5">
+        <v>5.61160669092979E-05</v>
+      </c>
+      <c r="T5">
+        <v>5.965063662146716E-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.06488733333333334</v>
+      </c>
+      <c r="H6">
+        <v>0.194662</v>
+      </c>
+      <c r="I6">
+        <v>0.01118619931635934</v>
+      </c>
+      <c r="J6">
+        <v>0.01123574233808859</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.897453</v>
+      </c>
+      <c r="N6">
+        <v>3.794906</v>
+      </c>
+      <c r="O6">
+        <v>0.1652640335793479</v>
+      </c>
+      <c r="P6">
+        <v>0.1165992427774658</v>
+      </c>
+      <c r="Q6">
+        <v>0.1231206652953333</v>
+      </c>
+      <c r="R6">
+        <v>0.738723991772</v>
+      </c>
+      <c r="S6">
+        <v>0.001848676419444089</v>
+      </c>
+      <c r="T6">
+        <v>0.001310079048663843</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5.659039666666668</v>
+      </c>
+      <c r="H7">
+        <v>16.977119</v>
+      </c>
+      <c r="I7">
+        <v>0.9755855634461335</v>
+      </c>
+      <c r="J7">
+        <v>0.9799063747781704</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.139245</v>
+      </c>
+      <c r="N7">
+        <v>0.417735</v>
+      </c>
+      <c r="O7">
+        <v>0.01212793695325064</v>
+      </c>
+      <c r="P7">
+        <v>0.01283499108585158</v>
+      </c>
+      <c r="Q7">
+        <v>0.787992978385</v>
+      </c>
+      <c r="R7">
+        <v>7.091936805465</v>
+      </c>
+      <c r="S7">
+        <v>0.01183184020597621</v>
+      </c>
+      <c r="T7">
+        <v>0.01257708958524696</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5.659039666666668</v>
+      </c>
+      <c r="H8">
+        <v>16.977119</v>
+      </c>
+      <c r="I8">
+        <v>0.9755855634461335</v>
+      </c>
+      <c r="J8">
+        <v>0.9799063747781704</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>9.380691666666667</v>
+      </c>
+      <c r="N8">
+        <v>28.142075</v>
+      </c>
+      <c r="O8">
+        <v>0.8170378621222814</v>
+      </c>
+      <c r="P8">
+        <v>0.8646708601442703</v>
+      </c>
+      <c r="Q8">
+        <v>53.08570624243612</v>
+      </c>
+      <c r="R8">
+        <v>477.7713561819251</v>
+      </c>
+      <c r="S8">
+        <v>0.7970903430753902</v>
+      </c>
+      <c r="T8">
+        <v>0.8472964879402943</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.659039666666668</v>
+      </c>
+      <c r="H9">
+        <v>16.977119</v>
+      </c>
+      <c r="I9">
+        <v>0.9755855634461335</v>
+      </c>
+      <c r="J9">
+        <v>0.9799063747781704</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.006356333333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.019069</v>
+      </c>
+      <c r="O9">
+        <v>0.0005536228225107701</v>
+      </c>
+      <c r="P9">
+        <v>0.0005858988234553099</v>
+      </c>
+      <c r="Q9">
+        <v>0.03597074246788889</v>
+      </c>
+      <c r="R9">
+        <v>0.323736682211</v>
+      </c>
+      <c r="S9">
+        <v>0.0005401064332358084</v>
+      </c>
+      <c r="T9">
+        <v>0.000574125992078888</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5.659039666666668</v>
+      </c>
+      <c r="H10">
+        <v>16.977119</v>
+      </c>
+      <c r="I10">
+        <v>0.9755855634461335</v>
+      </c>
+      <c r="J10">
+        <v>0.9799063747781704</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.05759666666666666</v>
+      </c>
+      <c r="N10">
+        <v>0.17279</v>
+      </c>
+      <c r="O10">
+        <v>0.005016544522609259</v>
+      </c>
+      <c r="P10">
+        <v>0.005309007168957103</v>
+      </c>
+      <c r="Q10">
+        <v>0.3259418213344445</v>
+      </c>
+      <c r="R10">
+        <v>2.93347639201</v>
+      </c>
+      <c r="S10">
+        <v>0.004894068414642369</v>
+      </c>
+      <c r="T10">
+        <v>0.005202329968604072</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5.659039666666668</v>
+      </c>
+      <c r="H11">
+        <v>16.977119</v>
+      </c>
+      <c r="I11">
+        <v>0.9755855634461335</v>
+      </c>
+      <c r="J11">
+        <v>0.9799063747781704</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.897453</v>
+      </c>
+      <c r="N11">
+        <v>3.794906</v>
+      </c>
+      <c r="O11">
+        <v>0.1652640335793479</v>
+      </c>
+      <c r="P11">
+        <v>0.1165992427774658</v>
+      </c>
+      <c r="Q11">
+        <v>10.73776179263567</v>
+      </c>
+      <c r="R11">
+        <v>64.42657075581401</v>
+      </c>
+      <c r="S11">
+        <v>0.1612292053168888</v>
+      </c>
+      <c r="T11">
+        <v>0.1142563412919463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>4.93929013296319</v>
-      </c>
-      <c r="H4">
-        <v>4.93929013296319</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1.79332261549338</v>
-      </c>
-      <c r="N4">
-        <v>1.79332261549338</v>
-      </c>
-      <c r="O4">
-        <v>0.1688467268639284</v>
-      </c>
-      <c r="P4">
-        <v>0.1688467268639284</v>
-      </c>
-      <c r="Q4">
-        <v>8.857740699926193</v>
-      </c>
-      <c r="R4">
-        <v>8.857740699926193</v>
-      </c>
-      <c r="S4">
-        <v>0.1688467268639284</v>
-      </c>
-      <c r="T4">
-        <v>0.1688467268639284</v>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.0767325</v>
+      </c>
+      <c r="H12">
+        <v>0.153465</v>
+      </c>
+      <c r="I12">
+        <v>0.01322823723750722</v>
+      </c>
+      <c r="J12">
+        <v>0.00885788288374087</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.139245</v>
+      </c>
+      <c r="N12">
+        <v>0.417735</v>
+      </c>
+      <c r="O12">
+        <v>0.01212793695325064</v>
+      </c>
+      <c r="P12">
+        <v>0.01283499108585158</v>
+      </c>
+      <c r="Q12">
+        <v>0.0106846169625</v>
+      </c>
+      <c r="R12">
+        <v>0.064107701775</v>
+      </c>
+      <c r="S12">
+        <v>0.00016043122721913</v>
+      </c>
+      <c r="T12">
+        <v>0.0001136908478523314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.0767325</v>
+      </c>
+      <c r="H13">
+        <v>0.153465</v>
+      </c>
+      <c r="I13">
+        <v>0.01322823723750722</v>
+      </c>
+      <c r="J13">
+        <v>0.00885788288374087</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>9.380691666666667</v>
+      </c>
+      <c r="N13">
+        <v>28.142075</v>
+      </c>
+      <c r="O13">
+        <v>0.8170378621222814</v>
+      </c>
+      <c r="P13">
+        <v>0.8646708601442703</v>
+      </c>
+      <c r="Q13">
+        <v>0.7198039233125</v>
+      </c>
+      <c r="R13">
+        <v>4.318823539875</v>
+      </c>
+      <c r="S13">
+        <v>0.01080797067217925</v>
+      </c>
+      <c r="T13">
+        <v>0.007659153212141427</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.0767325</v>
+      </c>
+      <c r="H14">
+        <v>0.153465</v>
+      </c>
+      <c r="I14">
+        <v>0.01322823723750722</v>
+      </c>
+      <c r="J14">
+        <v>0.00885788288374087</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.006356333333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.019069</v>
+      </c>
+      <c r="O14">
+        <v>0.0005536228225107701</v>
+      </c>
+      <c r="P14">
+        <v>0.0005858988234553099</v>
+      </c>
+      <c r="Q14">
+        <v>0.0004877373474999999</v>
+      </c>
+      <c r="R14">
+        <v>0.002926424085</v>
+      </c>
+      <c r="S14">
+        <v>7.323454036270818E-06</v>
+      </c>
+      <c r="T14">
+        <v>5.189823159888702E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.0767325</v>
+      </c>
+      <c r="H15">
+        <v>0.153465</v>
+      </c>
+      <c r="I15">
+        <v>0.01322823723750722</v>
+      </c>
+      <c r="J15">
+        <v>0.00885788288374087</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.05759666666666666</v>
+      </c>
+      <c r="N15">
+        <v>0.17279</v>
+      </c>
+      <c r="O15">
+        <v>0.005016544522609259</v>
+      </c>
+      <c r="P15">
+        <v>0.005309007168957103</v>
+      </c>
+      <c r="Q15">
+        <v>0.004419536224999999</v>
+      </c>
+      <c r="R15">
+        <v>0.02651721735</v>
+      </c>
+      <c r="S15">
+        <v>6.636004105759266E-05</v>
+      </c>
+      <c r="T15">
+        <v>4.702656373156269E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.0767325</v>
+      </c>
+      <c r="H16">
+        <v>0.153465</v>
+      </c>
+      <c r="I16">
+        <v>0.01322823723750722</v>
+      </c>
+      <c r="J16">
+        <v>0.00885788288374087</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.897453</v>
+      </c>
+      <c r="N16">
+        <v>3.794906</v>
+      </c>
+      <c r="O16">
+        <v>0.1652640335793479</v>
+      </c>
+      <c r="P16">
+        <v>0.1165992427774658</v>
+      </c>
+      <c r="Q16">
+        <v>0.1455963123225</v>
+      </c>
+      <c r="R16">
+        <v>0.58238524929</v>
+      </c>
+      <c r="S16">
+        <v>0.002186151843014973</v>
+      </c>
+      <c r="T16">
+        <v>0.001032822436855661</v>
       </c>
     </row>
   </sheetData>
